--- a/TestData/savings.xlsx
+++ b/TestData/savings.xlsx
@@ -114,10 +114,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,13 +404,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -441,10 +443,10 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
